--- a/kidosheets.xlsx
+++ b/kidosheets.xlsx
@@ -13,9 +13,317 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>0 + 0</t>
+  </si>
+  <si>
+    <t>0 + 1</t>
+  </si>
+  <si>
+    <t>0 + 2</t>
+  </si>
+  <si>
+    <t>0 + 3</t>
+  </si>
+  <si>
+    <t>0 + 4</t>
+  </si>
+  <si>
+    <t>0 + 5</t>
+  </si>
+  <si>
+    <t>0 + 6</t>
+  </si>
+  <si>
+    <t>0 + 7</t>
+  </si>
+  <si>
+    <t>0 + 8</t>
+  </si>
+  <si>
+    <t>0 + 9</t>
+  </si>
+  <si>
+    <t>1 + 0</t>
+  </si>
+  <si>
+    <t>1 + 1</t>
+  </si>
+  <si>
+    <t>1 + 2</t>
+  </si>
+  <si>
+    <t>1 + 3</t>
+  </si>
+  <si>
+    <t>1 + 4</t>
+  </si>
+  <si>
+    <t>1 + 5</t>
+  </si>
+  <si>
+    <t>1 + 6</t>
+  </si>
+  <si>
+    <t>1 + 7</t>
+  </si>
+  <si>
+    <t>1 + 8</t>
+  </si>
+  <si>
+    <t>1 + 9</t>
+  </si>
+  <si>
+    <t>2 + 0</t>
+  </si>
+  <si>
+    <t>2 + 1</t>
+  </si>
+  <si>
+    <t>2 + 2</t>
+  </si>
+  <si>
+    <t>2 + 3</t>
+  </si>
+  <si>
+    <t>2 + 4</t>
+  </si>
+  <si>
+    <t>2 + 5</t>
+  </si>
+  <si>
+    <t>2 + 6</t>
+  </si>
+  <si>
+    <t>2 + 7</t>
+  </si>
+  <si>
+    <t>2 + 8</t>
+  </si>
+  <si>
+    <t>2 + 9</t>
+  </si>
+  <si>
+    <t>3 + 0</t>
+  </si>
+  <si>
+    <t>3 + 1</t>
+  </si>
+  <si>
+    <t>3 + 2</t>
+  </si>
+  <si>
+    <t>3 + 3</t>
+  </si>
+  <si>
+    <t>3 + 4</t>
+  </si>
+  <si>
+    <t>3 + 5</t>
+  </si>
+  <si>
+    <t>3 + 6</t>
+  </si>
+  <si>
+    <t>3 + 7</t>
+  </si>
+  <si>
+    <t>3 + 8</t>
+  </si>
+  <si>
+    <t>3 + 9</t>
+  </si>
+  <si>
+    <t>4 + 0</t>
+  </si>
+  <si>
+    <t>4 + 1</t>
+  </si>
+  <si>
+    <t>4 + 2</t>
+  </si>
+  <si>
+    <t>4 + 3</t>
+  </si>
+  <si>
+    <t>4 + 4</t>
+  </si>
+  <si>
+    <t>4 + 5</t>
+  </si>
+  <si>
+    <t>4 + 6</t>
+  </si>
+  <si>
+    <t>4 + 7</t>
+  </si>
+  <si>
+    <t>4 + 8</t>
+  </si>
+  <si>
+    <t>4 + 9</t>
+  </si>
+  <si>
+    <t>5 + 0</t>
+  </si>
+  <si>
+    <t>5 + 1</t>
+  </si>
+  <si>
+    <t>5 + 2</t>
+  </si>
+  <si>
+    <t>5 + 3</t>
+  </si>
+  <si>
+    <t>5 + 4</t>
+  </si>
+  <si>
+    <t>5 + 5</t>
+  </si>
+  <si>
+    <t>5 + 6</t>
+  </si>
+  <si>
+    <t>5 + 7</t>
+  </si>
+  <si>
+    <t>5 + 8</t>
+  </si>
+  <si>
+    <t>5 + 9</t>
+  </si>
+  <si>
+    <t>6 + 0</t>
+  </si>
+  <si>
+    <t>6 + 1</t>
+  </si>
+  <si>
+    <t>6 + 2</t>
+  </si>
+  <si>
+    <t>6 + 3</t>
+  </si>
+  <si>
+    <t>6 + 4</t>
+  </si>
+  <si>
+    <t>6 + 5</t>
+  </si>
+  <si>
+    <t>6 + 6</t>
+  </si>
+  <si>
+    <t>6 + 7</t>
+  </si>
+  <si>
+    <t>6 + 8</t>
+  </si>
+  <si>
+    <t>6 + 9</t>
+  </si>
+  <si>
+    <t>7 + 0</t>
+  </si>
+  <si>
+    <t>7 + 1</t>
+  </si>
+  <si>
+    <t>7 + 2</t>
+  </si>
+  <si>
+    <t>7 + 3</t>
+  </si>
+  <si>
+    <t>7 + 4</t>
+  </si>
+  <si>
+    <t>7 + 5</t>
+  </si>
+  <si>
+    <t>7 + 6</t>
+  </si>
+  <si>
+    <t>7 + 7</t>
+  </si>
+  <si>
+    <t>7 + 8</t>
+  </si>
+  <si>
+    <t>7 + 9</t>
+  </si>
+  <si>
+    <t>8 + 0</t>
+  </si>
+  <si>
+    <t>8 + 1</t>
+  </si>
+  <si>
+    <t>8 + 2</t>
+  </si>
+  <si>
+    <t>8 + 3</t>
+  </si>
+  <si>
+    <t>8 + 4</t>
+  </si>
+  <si>
+    <t>8 + 5</t>
+  </si>
+  <si>
+    <t>8 + 6</t>
+  </si>
+  <si>
+    <t>8 + 7</t>
+  </si>
+  <si>
+    <t>8 + 8</t>
+  </si>
+  <si>
+    <t>8 + 9</t>
+  </si>
+  <si>
+    <t>9 + 0</t>
+  </si>
+  <si>
+    <t>9 + 1</t>
+  </si>
+  <si>
+    <t>9 + 2</t>
+  </si>
+  <si>
+    <t>9 + 3</t>
+  </si>
+  <si>
+    <t>9 + 4</t>
+  </si>
+  <si>
+    <t>9 + 5</t>
+  </si>
+  <si>
+    <t>9 + 6</t>
+  </si>
+  <si>
+    <t>9 + 7</t>
+  </si>
+  <si>
+    <t>9 + 8</t>
+  </si>
+  <si>
+    <t>9 + 9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +338,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -39,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,14 +377,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,7 +705,9 @@
   <sheetFormatPr defaultRowHeight="44" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:11" ht="44" customHeight="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -408,151 +743,351 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="44" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="44" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="44" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="44" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="44" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="44" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="44" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="44" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="44" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kidosheets.xlsx
+++ b/kidosheets.xlsx
@@ -16,307 +16,307 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>0 + 0</t>
-  </si>
-  <si>
-    <t>0 + 1</t>
-  </si>
-  <si>
-    <t>0 + 2</t>
-  </si>
-  <si>
-    <t>0 + 3</t>
-  </si>
-  <si>
-    <t>0 + 4</t>
-  </si>
-  <si>
-    <t>0 + 5</t>
-  </si>
-  <si>
-    <t>0 + 6</t>
-  </si>
-  <si>
-    <t>0 + 7</t>
-  </si>
-  <si>
-    <t>0 + 8</t>
-  </si>
-  <si>
-    <t>0 + 9</t>
-  </si>
-  <si>
-    <t>1 + 0</t>
-  </si>
-  <si>
-    <t>1 + 1</t>
-  </si>
-  <si>
-    <t>1 + 2</t>
-  </si>
-  <si>
-    <t>1 + 3</t>
-  </si>
-  <si>
-    <t>1 + 4</t>
-  </si>
-  <si>
-    <t>1 + 5</t>
-  </si>
-  <si>
-    <t>1 + 6</t>
-  </si>
-  <si>
-    <t>1 + 7</t>
-  </si>
-  <si>
-    <t>1 + 8</t>
-  </si>
-  <si>
-    <t>1 + 9</t>
-  </si>
-  <si>
-    <t>2 + 0</t>
-  </si>
-  <si>
-    <t>2 + 1</t>
-  </si>
-  <si>
-    <t>2 + 2</t>
-  </si>
-  <si>
-    <t>2 + 3</t>
-  </si>
-  <si>
-    <t>2 + 4</t>
-  </si>
-  <si>
-    <t>2 + 5</t>
-  </si>
-  <si>
-    <t>2 + 6</t>
-  </si>
-  <si>
-    <t>2 + 7</t>
-  </si>
-  <si>
-    <t>2 + 8</t>
-  </si>
-  <si>
-    <t>2 + 9</t>
-  </si>
-  <si>
-    <t>3 + 0</t>
-  </si>
-  <si>
-    <t>3 + 1</t>
-  </si>
-  <si>
-    <t>3 + 2</t>
-  </si>
-  <si>
-    <t>3 + 3</t>
-  </si>
-  <si>
-    <t>3 + 4</t>
-  </si>
-  <si>
-    <t>3 + 5</t>
-  </si>
-  <si>
-    <t>3 + 6</t>
-  </si>
-  <si>
-    <t>3 + 7</t>
-  </si>
-  <si>
-    <t>3 + 8</t>
-  </si>
-  <si>
-    <t>3 + 9</t>
-  </si>
-  <si>
-    <t>4 + 0</t>
-  </si>
-  <si>
-    <t>4 + 1</t>
-  </si>
-  <si>
-    <t>4 + 2</t>
-  </si>
-  <si>
-    <t>4 + 3</t>
-  </si>
-  <si>
-    <t>4 + 4</t>
-  </si>
-  <si>
-    <t>4 + 5</t>
-  </si>
-  <si>
-    <t>4 + 6</t>
-  </si>
-  <si>
-    <t>4 + 7</t>
-  </si>
-  <si>
-    <t>4 + 8</t>
-  </si>
-  <si>
-    <t>4 + 9</t>
-  </si>
-  <si>
-    <t>5 + 0</t>
-  </si>
-  <si>
-    <t>5 + 1</t>
-  </si>
-  <si>
-    <t>5 + 2</t>
-  </si>
-  <si>
-    <t>5 + 3</t>
-  </si>
-  <si>
-    <t>5 + 4</t>
-  </si>
-  <si>
-    <t>5 + 5</t>
-  </si>
-  <si>
-    <t>5 + 6</t>
-  </si>
-  <si>
-    <t>5 + 7</t>
-  </si>
-  <si>
-    <t>5 + 8</t>
-  </si>
-  <si>
-    <t>5 + 9</t>
-  </si>
-  <si>
-    <t>6 + 0</t>
-  </si>
-  <si>
-    <t>6 + 1</t>
-  </si>
-  <si>
-    <t>6 + 2</t>
-  </si>
-  <si>
-    <t>6 + 3</t>
-  </si>
-  <si>
-    <t>6 + 4</t>
-  </si>
-  <si>
-    <t>6 + 5</t>
-  </si>
-  <si>
-    <t>6 + 6</t>
-  </si>
-  <si>
-    <t>6 + 7</t>
-  </si>
-  <si>
-    <t>6 + 8</t>
-  </si>
-  <si>
-    <t>6 + 9</t>
-  </si>
-  <si>
-    <t>7 + 0</t>
-  </si>
-  <si>
-    <t>7 + 1</t>
-  </si>
-  <si>
-    <t>7 + 2</t>
-  </si>
-  <si>
-    <t>7 + 3</t>
-  </si>
-  <si>
-    <t>7 + 4</t>
-  </si>
-  <si>
-    <t>7 + 5</t>
-  </si>
-  <si>
-    <t>7 + 6</t>
-  </si>
-  <si>
-    <t>7 + 7</t>
-  </si>
-  <si>
-    <t>7 + 8</t>
-  </si>
-  <si>
-    <t>7 + 9</t>
-  </si>
-  <si>
-    <t>8 + 0</t>
-  </si>
-  <si>
-    <t>8 + 1</t>
-  </si>
-  <si>
-    <t>8 + 2</t>
-  </si>
-  <si>
-    <t>8 + 3</t>
-  </si>
-  <si>
-    <t>8 + 4</t>
-  </si>
-  <si>
-    <t>8 + 5</t>
-  </si>
-  <si>
-    <t>8 + 6</t>
-  </si>
-  <si>
-    <t>8 + 7</t>
-  </si>
-  <si>
-    <t>8 + 8</t>
-  </si>
-  <si>
-    <t>8 + 9</t>
-  </si>
-  <si>
-    <t>9 + 0</t>
-  </si>
-  <si>
-    <t>9 + 1</t>
-  </si>
-  <si>
-    <t>9 + 2</t>
-  </si>
-  <si>
-    <t>9 + 3</t>
-  </si>
-  <si>
-    <t>9 + 4</t>
-  </si>
-  <si>
-    <t>9 + 5</t>
-  </si>
-  <si>
-    <t>9 + 6</t>
-  </si>
-  <si>
-    <t>9 + 7</t>
-  </si>
-  <si>
-    <t>9 + 8</t>
-  </si>
-  <si>
-    <t>9 + 9</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0 ? 0</t>
+  </si>
+  <si>
+    <t>1 ? 0</t>
+  </si>
+  <si>
+    <t>2 ? 0</t>
+  </si>
+  <si>
+    <t>3 ? 0</t>
+  </si>
+  <si>
+    <t>4 ? 0</t>
+  </si>
+  <si>
+    <t>5 ? 0</t>
+  </si>
+  <si>
+    <t>6 ? 0</t>
+  </si>
+  <si>
+    <t>7 ? 0</t>
+  </si>
+  <si>
+    <t>8 ? 0</t>
+  </si>
+  <si>
+    <t>9 ? 0</t>
+  </si>
+  <si>
+    <t>0 ? 1</t>
+  </si>
+  <si>
+    <t>1 ? 1</t>
+  </si>
+  <si>
+    <t>2 ? 1</t>
+  </si>
+  <si>
+    <t>3 ? 1</t>
+  </si>
+  <si>
+    <t>4 ? 1</t>
+  </si>
+  <si>
+    <t>5 ? 1</t>
+  </si>
+  <si>
+    <t>6 ? 1</t>
+  </si>
+  <si>
+    <t>7 ? 1</t>
+  </si>
+  <si>
+    <t>8 ? 1</t>
+  </si>
+  <si>
+    <t>9 ? 1</t>
+  </si>
+  <si>
+    <t>0 ? 2</t>
+  </si>
+  <si>
+    <t>1 ? 2</t>
+  </si>
+  <si>
+    <t>2 ? 2</t>
+  </si>
+  <si>
+    <t>3 ? 2</t>
+  </si>
+  <si>
+    <t>4 ? 2</t>
+  </si>
+  <si>
+    <t>5 ? 2</t>
+  </si>
+  <si>
+    <t>6 ? 2</t>
+  </si>
+  <si>
+    <t>7 ? 2</t>
+  </si>
+  <si>
+    <t>8 ? 2</t>
+  </si>
+  <si>
+    <t>9 ? 2</t>
+  </si>
+  <si>
+    <t>0 ? 3</t>
+  </si>
+  <si>
+    <t>1 ? 3</t>
+  </si>
+  <si>
+    <t>2 ? 3</t>
+  </si>
+  <si>
+    <t>3 ? 3</t>
+  </si>
+  <si>
+    <t>4 ? 3</t>
+  </si>
+  <si>
+    <t>5 ? 3</t>
+  </si>
+  <si>
+    <t>6 ? 3</t>
+  </si>
+  <si>
+    <t>7 ? 3</t>
+  </si>
+  <si>
+    <t>8 ? 3</t>
+  </si>
+  <si>
+    <t>9 ? 3</t>
+  </si>
+  <si>
+    <t>0 ? 4</t>
+  </si>
+  <si>
+    <t>1 ? 4</t>
+  </si>
+  <si>
+    <t>2 ? 4</t>
+  </si>
+  <si>
+    <t>3 ? 4</t>
+  </si>
+  <si>
+    <t>4 ? 4</t>
+  </si>
+  <si>
+    <t>5 ? 4</t>
+  </si>
+  <si>
+    <t>6 ? 4</t>
+  </si>
+  <si>
+    <t>7 ? 4</t>
+  </si>
+  <si>
+    <t>8 ? 4</t>
+  </si>
+  <si>
+    <t>9 ? 4</t>
+  </si>
+  <si>
+    <t>0 ? 5</t>
+  </si>
+  <si>
+    <t>1 ? 5</t>
+  </si>
+  <si>
+    <t>2 ? 5</t>
+  </si>
+  <si>
+    <t>3 ? 5</t>
+  </si>
+  <si>
+    <t>4 ? 5</t>
+  </si>
+  <si>
+    <t>5 ? 5</t>
+  </si>
+  <si>
+    <t>6 ? 5</t>
+  </si>
+  <si>
+    <t>7 ? 5</t>
+  </si>
+  <si>
+    <t>8 ? 5</t>
+  </si>
+  <si>
+    <t>9 ? 5</t>
+  </si>
+  <si>
+    <t>0 ? 6</t>
+  </si>
+  <si>
+    <t>1 ? 6</t>
+  </si>
+  <si>
+    <t>2 ? 6</t>
+  </si>
+  <si>
+    <t>3 ? 6</t>
+  </si>
+  <si>
+    <t>4 ? 6</t>
+  </si>
+  <si>
+    <t>5 ? 6</t>
+  </si>
+  <si>
+    <t>6 ? 6</t>
+  </si>
+  <si>
+    <t>7 ? 6</t>
+  </si>
+  <si>
+    <t>8 ? 6</t>
+  </si>
+  <si>
+    <t>9 ? 6</t>
+  </si>
+  <si>
+    <t>0 ? 7</t>
+  </si>
+  <si>
+    <t>1 ? 7</t>
+  </si>
+  <si>
+    <t>2 ? 7</t>
+  </si>
+  <si>
+    <t>3 ? 7</t>
+  </si>
+  <si>
+    <t>4 ? 7</t>
+  </si>
+  <si>
+    <t>5 ? 7</t>
+  </si>
+  <si>
+    <t>6 ? 7</t>
+  </si>
+  <si>
+    <t>7 ? 7</t>
+  </si>
+  <si>
+    <t>8 ? 7</t>
+  </si>
+  <si>
+    <t>9 ? 7</t>
+  </si>
+  <si>
+    <t>0 ? 8</t>
+  </si>
+  <si>
+    <t>1 ? 8</t>
+  </si>
+  <si>
+    <t>2 ? 8</t>
+  </si>
+  <si>
+    <t>3 ? 8</t>
+  </si>
+  <si>
+    <t>4 ? 8</t>
+  </si>
+  <si>
+    <t>5 ? 8</t>
+  </si>
+  <si>
+    <t>6 ? 8</t>
+  </si>
+  <si>
+    <t>7 ? 8</t>
+  </si>
+  <si>
+    <t>8 ? 8</t>
+  </si>
+  <si>
+    <t>9 ? 8</t>
+  </si>
+  <si>
+    <t>0 ? 9</t>
+  </si>
+  <si>
+    <t>1 ? 9</t>
+  </si>
+  <si>
+    <t>2 ? 9</t>
+  </si>
+  <si>
+    <t>3 ? 9</t>
+  </si>
+  <si>
+    <t>4 ? 9</t>
+  </si>
+  <si>
+    <t>5 ? 9</t>
+  </si>
+  <si>
+    <t>6 ? 9</t>
+  </si>
+  <si>
+    <t>7 ? 9</t>
+  </si>
+  <si>
+    <t>8 ? 9</t>
+  </si>
+  <si>
+    <t>9 ? 9</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="30"/>
+      <sz val="41.63636363636363"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -702,9 +702,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="44" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="43.63636363636363" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="44" customHeight="1">
+    <row r="1" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="44" customHeight="1">
+    <row r="2" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="44" customHeight="1">
+    <row r="3" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -809,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="44" customHeight="1">
+    <row r="4" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -844,7 +844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="44" customHeight="1">
+    <row r="5" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="44" customHeight="1">
+    <row r="6" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,7 +914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="44" customHeight="1">
+    <row r="7" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -949,7 +949,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="44" customHeight="1">
+    <row r="8" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="44" customHeight="1">
+    <row r="9" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="44" customHeight="1">
+    <row r="10" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="44" customHeight="1">
+    <row r="11" spans="1:11" ht="43.6364" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>

--- a/kidosheets.xlsx
+++ b/kidosheets.xlsx
@@ -16,307 +16,307 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>0 ? 0</t>
-  </si>
-  <si>
-    <t>1 ? 0</t>
-  </si>
-  <si>
-    <t>2 ? 0</t>
-  </si>
-  <si>
-    <t>3 ? 0</t>
-  </si>
-  <si>
-    <t>4 ? 0</t>
-  </si>
-  <si>
-    <t>5 ? 0</t>
-  </si>
-  <si>
-    <t>6 ? 0</t>
-  </si>
-  <si>
-    <t>7 ? 0</t>
-  </si>
-  <si>
-    <t>8 ? 0</t>
-  </si>
-  <si>
-    <t>9 ? 0</t>
-  </si>
-  <si>
-    <t>0 ? 1</t>
-  </si>
-  <si>
-    <t>1 ? 1</t>
-  </si>
-  <si>
-    <t>2 ? 1</t>
-  </si>
-  <si>
-    <t>3 ? 1</t>
-  </si>
-  <si>
-    <t>4 ? 1</t>
-  </si>
-  <si>
-    <t>5 ? 1</t>
-  </si>
-  <si>
-    <t>6 ? 1</t>
-  </si>
-  <si>
-    <t>7 ? 1</t>
-  </si>
-  <si>
-    <t>8 ? 1</t>
-  </si>
-  <si>
-    <t>9 ? 1</t>
-  </si>
-  <si>
-    <t>0 ? 2</t>
-  </si>
-  <si>
-    <t>1 ? 2</t>
-  </si>
-  <si>
-    <t>2 ? 2</t>
-  </si>
-  <si>
-    <t>3 ? 2</t>
-  </si>
-  <si>
-    <t>4 ? 2</t>
-  </si>
-  <si>
-    <t>5 ? 2</t>
-  </si>
-  <si>
-    <t>6 ? 2</t>
-  </si>
-  <si>
-    <t>7 ? 2</t>
-  </si>
-  <si>
-    <t>8 ? 2</t>
-  </si>
-  <si>
-    <t>9 ? 2</t>
-  </si>
-  <si>
-    <t>0 ? 3</t>
-  </si>
-  <si>
-    <t>1 ? 3</t>
-  </si>
-  <si>
-    <t>2 ? 3</t>
-  </si>
-  <si>
-    <t>3 ? 3</t>
-  </si>
-  <si>
-    <t>4 ? 3</t>
-  </si>
-  <si>
-    <t>5 ? 3</t>
-  </si>
-  <si>
-    <t>6 ? 3</t>
-  </si>
-  <si>
-    <t>7 ? 3</t>
-  </si>
-  <si>
-    <t>8 ? 3</t>
-  </si>
-  <si>
-    <t>9 ? 3</t>
-  </si>
-  <si>
-    <t>0 ? 4</t>
-  </si>
-  <si>
-    <t>1 ? 4</t>
-  </si>
-  <si>
-    <t>2 ? 4</t>
-  </si>
-  <si>
-    <t>3 ? 4</t>
-  </si>
-  <si>
-    <t>4 ? 4</t>
-  </si>
-  <si>
-    <t>5 ? 4</t>
-  </si>
-  <si>
-    <t>6 ? 4</t>
-  </si>
-  <si>
-    <t>7 ? 4</t>
-  </si>
-  <si>
-    <t>8 ? 4</t>
-  </si>
-  <si>
-    <t>9 ? 4</t>
-  </si>
-  <si>
-    <t>0 ? 5</t>
-  </si>
-  <si>
-    <t>1 ? 5</t>
-  </si>
-  <si>
-    <t>2 ? 5</t>
-  </si>
-  <si>
-    <t>3 ? 5</t>
-  </si>
-  <si>
-    <t>4 ? 5</t>
-  </si>
-  <si>
-    <t>5 ? 5</t>
-  </si>
-  <si>
-    <t>6 ? 5</t>
-  </si>
-  <si>
-    <t>7 ? 5</t>
-  </si>
-  <si>
-    <t>8 ? 5</t>
-  </si>
-  <si>
-    <t>9 ? 5</t>
-  </si>
-  <si>
-    <t>0 ? 6</t>
-  </si>
-  <si>
-    <t>1 ? 6</t>
-  </si>
-  <si>
-    <t>2 ? 6</t>
-  </si>
-  <si>
-    <t>3 ? 6</t>
-  </si>
-  <si>
-    <t>4 ? 6</t>
-  </si>
-  <si>
-    <t>5 ? 6</t>
-  </si>
-  <si>
-    <t>6 ? 6</t>
-  </si>
-  <si>
-    <t>7 ? 6</t>
-  </si>
-  <si>
-    <t>8 ? 6</t>
-  </si>
-  <si>
-    <t>9 ? 6</t>
-  </si>
-  <si>
-    <t>0 ? 7</t>
-  </si>
-  <si>
-    <t>1 ? 7</t>
-  </si>
-  <si>
-    <t>2 ? 7</t>
-  </si>
-  <si>
-    <t>3 ? 7</t>
-  </si>
-  <si>
-    <t>4 ? 7</t>
-  </si>
-  <si>
-    <t>5 ? 7</t>
-  </si>
-  <si>
-    <t>6 ? 7</t>
-  </si>
-  <si>
-    <t>7 ? 7</t>
-  </si>
-  <si>
-    <t>8 ? 7</t>
-  </si>
-  <si>
-    <t>9 ? 7</t>
-  </si>
-  <si>
-    <t>0 ? 8</t>
-  </si>
-  <si>
-    <t>1 ? 8</t>
-  </si>
-  <si>
-    <t>2 ? 8</t>
-  </si>
-  <si>
-    <t>3 ? 8</t>
-  </si>
-  <si>
-    <t>4 ? 8</t>
-  </si>
-  <si>
-    <t>5 ? 8</t>
-  </si>
-  <si>
-    <t>6 ? 8</t>
-  </si>
-  <si>
-    <t>7 ? 8</t>
-  </si>
-  <si>
-    <t>8 ? 8</t>
-  </si>
-  <si>
-    <t>9 ? 8</t>
-  </si>
-  <si>
-    <t>0 ? 9</t>
-  </si>
-  <si>
-    <t>1 ? 9</t>
-  </si>
-  <si>
-    <t>2 ? 9</t>
-  </si>
-  <si>
-    <t>3 ? 9</t>
-  </si>
-  <si>
-    <t>4 ? 9</t>
-  </si>
-  <si>
-    <t>5 ? 9</t>
-  </si>
-  <si>
-    <t>6 ? 9</t>
-  </si>
-  <si>
-    <t>7 ? 9</t>
-  </si>
-  <si>
-    <t>8 ? 9</t>
-  </si>
-  <si>
-    <t>9 ? 9</t>
+    <t>+</t>
+  </si>
+  <si>
+    <t>0 + 0</t>
+  </si>
+  <si>
+    <t>1 + 0</t>
+  </si>
+  <si>
+    <t>2 + 0</t>
+  </si>
+  <si>
+    <t>3 + 0</t>
+  </si>
+  <si>
+    <t>4 + 0</t>
+  </si>
+  <si>
+    <t>5 + 0</t>
+  </si>
+  <si>
+    <t>6 + 0</t>
+  </si>
+  <si>
+    <t>7 + 0</t>
+  </si>
+  <si>
+    <t>8 + 0</t>
+  </si>
+  <si>
+    <t>9 + 0</t>
+  </si>
+  <si>
+    <t>0 + 1</t>
+  </si>
+  <si>
+    <t>1 + 1</t>
+  </si>
+  <si>
+    <t>2 + 1</t>
+  </si>
+  <si>
+    <t>3 + 1</t>
+  </si>
+  <si>
+    <t>4 + 1</t>
+  </si>
+  <si>
+    <t>5 + 1</t>
+  </si>
+  <si>
+    <t>6 + 1</t>
+  </si>
+  <si>
+    <t>7 + 1</t>
+  </si>
+  <si>
+    <t>8 + 1</t>
+  </si>
+  <si>
+    <t>9 + 1</t>
+  </si>
+  <si>
+    <t>0 + 2</t>
+  </si>
+  <si>
+    <t>1 + 2</t>
+  </si>
+  <si>
+    <t>2 + 2</t>
+  </si>
+  <si>
+    <t>3 + 2</t>
+  </si>
+  <si>
+    <t>4 + 2</t>
+  </si>
+  <si>
+    <t>5 + 2</t>
+  </si>
+  <si>
+    <t>6 + 2</t>
+  </si>
+  <si>
+    <t>7 + 2</t>
+  </si>
+  <si>
+    <t>8 + 2</t>
+  </si>
+  <si>
+    <t>9 + 2</t>
+  </si>
+  <si>
+    <t>0 + 3</t>
+  </si>
+  <si>
+    <t>1 + 3</t>
+  </si>
+  <si>
+    <t>2 + 3</t>
+  </si>
+  <si>
+    <t>3 + 3</t>
+  </si>
+  <si>
+    <t>4 + 3</t>
+  </si>
+  <si>
+    <t>5 + 3</t>
+  </si>
+  <si>
+    <t>6 + 3</t>
+  </si>
+  <si>
+    <t>7 + 3</t>
+  </si>
+  <si>
+    <t>8 + 3</t>
+  </si>
+  <si>
+    <t>9 + 3</t>
+  </si>
+  <si>
+    <t>0 + 4</t>
+  </si>
+  <si>
+    <t>1 + 4</t>
+  </si>
+  <si>
+    <t>2 + 4</t>
+  </si>
+  <si>
+    <t>3 + 4</t>
+  </si>
+  <si>
+    <t>4 + 4</t>
+  </si>
+  <si>
+    <t>5 + 4</t>
+  </si>
+  <si>
+    <t>6 + 4</t>
+  </si>
+  <si>
+    <t>7 + 4</t>
+  </si>
+  <si>
+    <t>8 + 4</t>
+  </si>
+  <si>
+    <t>9 + 4</t>
+  </si>
+  <si>
+    <t>0 + 5</t>
+  </si>
+  <si>
+    <t>1 + 5</t>
+  </si>
+  <si>
+    <t>2 + 5</t>
+  </si>
+  <si>
+    <t>3 + 5</t>
+  </si>
+  <si>
+    <t>4 + 5</t>
+  </si>
+  <si>
+    <t>5 + 5</t>
+  </si>
+  <si>
+    <t>6 + 5</t>
+  </si>
+  <si>
+    <t>7 + 5</t>
+  </si>
+  <si>
+    <t>8 + 5</t>
+  </si>
+  <si>
+    <t>9 + 5</t>
+  </si>
+  <si>
+    <t>0 + 6</t>
+  </si>
+  <si>
+    <t>1 + 6</t>
+  </si>
+  <si>
+    <t>2 + 6</t>
+  </si>
+  <si>
+    <t>3 + 6</t>
+  </si>
+  <si>
+    <t>4 + 6</t>
+  </si>
+  <si>
+    <t>5 + 6</t>
+  </si>
+  <si>
+    <t>6 + 6</t>
+  </si>
+  <si>
+    <t>7 + 6</t>
+  </si>
+  <si>
+    <t>8 + 6</t>
+  </si>
+  <si>
+    <t>9 + 6</t>
+  </si>
+  <si>
+    <t>0 + 7</t>
+  </si>
+  <si>
+    <t>1 + 7</t>
+  </si>
+  <si>
+    <t>2 + 7</t>
+  </si>
+  <si>
+    <t>3 + 7</t>
+  </si>
+  <si>
+    <t>4 + 7</t>
+  </si>
+  <si>
+    <t>5 + 7</t>
+  </si>
+  <si>
+    <t>6 + 7</t>
+  </si>
+  <si>
+    <t>7 + 7</t>
+  </si>
+  <si>
+    <t>8 + 7</t>
+  </si>
+  <si>
+    <t>9 + 7</t>
+  </si>
+  <si>
+    <t>0 + 8</t>
+  </si>
+  <si>
+    <t>1 + 8</t>
+  </si>
+  <si>
+    <t>2 + 8</t>
+  </si>
+  <si>
+    <t>3 + 8</t>
+  </si>
+  <si>
+    <t>4 + 8</t>
+  </si>
+  <si>
+    <t>5 + 8</t>
+  </si>
+  <si>
+    <t>6 + 8</t>
+  </si>
+  <si>
+    <t>7 + 8</t>
+  </si>
+  <si>
+    <t>8 + 8</t>
+  </si>
+  <si>
+    <t>9 + 8</t>
+  </si>
+  <si>
+    <t>0 + 9</t>
+  </si>
+  <si>
+    <t>1 + 9</t>
+  </si>
+  <si>
+    <t>2 + 9</t>
+  </si>
+  <si>
+    <t>3 + 9</t>
+  </si>
+  <si>
+    <t>4 + 9</t>
+  </si>
+  <si>
+    <t>5 + 9</t>
+  </si>
+  <si>
+    <t>6 + 9</t>
+  </si>
+  <si>
+    <t>7 + 9</t>
+  </si>
+  <si>
+    <t>8 + 9</t>
+  </si>
+  <si>
+    <t>9 + 9</t>
   </si>
 </sst>
 </file>
